--- a/Códigos/datos_dauco_variables_con_clusters_2.xlsx
+++ b/Códigos/datos_dauco_variables_con_clusters_2.xlsx
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="BO20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="BO21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="BO22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="BO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="BO32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -7263,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="BO33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="BO34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="BO43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -9699,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="BO45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="BO46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="BO47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -10308,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="BO48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="BO52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="BO53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -11932,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="BO56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="BO58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -12947,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="BO61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -13353,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="BO63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -13759,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="BO65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="BO67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -14368,7 +14368,7 @@
         <v>1</v>
       </c>
       <c r="BO68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -14571,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="BO69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -14774,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="BO70" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -15180,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="BO72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="BO73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
